--- a/data extraction /lit search metadata /fullvariability /wos176_final.xlsx
+++ b/data extraction /lit search metadata /fullvariability /wos176_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C8166-139F-A649-BDB1-DF440A45D682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE348A3-98C0-7647-B86D-2A179F95CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1540" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-5580" windowWidth="23980" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="945">
   <si>
     <t>label</t>
   </si>
@@ -766,9 +766,6 @@
     <t>Impact of Fluctuating Thermal Regimes on Drosophila Melanogaster Survival to Cold Stress.</t>
   </si>
   <si>
-    <t>Kern_2015_JOOFEXBI</t>
-  </si>
-  <si>
     <t>Kern, Pippa and Cramp, Rebecca L. and Franklin, Craig E.</t>
   </si>
   <si>
@@ -782,9 +779,6 @@
   </si>
   <si>
     <t>Physiological Responses of Ectotherms to Daily Temperature Variation.</t>
-  </si>
-  <si>
-    <t>Kern_2015_PHYS</t>
   </si>
   <si>
     <t>Kern, Pippa and Cramp, Rebecca L. and Seebacher, Frank and Kazerouni, Ensiyeh Ghanizadeh and Franklin, Craig E.</t>
@@ -2807,12 +2801,6 @@
     <t>pulse press, acclimation experiment</t>
   </si>
   <si>
-    <t>heatshock, return for pulse press experiments work; missing sample size for current extraction</t>
-  </si>
-  <si>
-    <t>might need to return to get actual irradiances for UV treatments (they manipulated both temperature and irradiance in these experiments)</t>
-  </si>
-  <si>
     <t xml:space="preserve">predictable and unpredictable variability; extracted all of figure 2 except for 2b and 2d--return to this for pulse press or acclimation assay experiments for cold exposure recovery etc </t>
   </si>
   <si>
@@ -2843,13 +2831,31 @@
     <t xml:space="preserve">acclimation as well as flux temp featured as treatments, flag for pulse press as well </t>
   </si>
   <si>
-    <t xml:space="preserve">figure 2,3 for full analysis, figure 4 and 5 acclimation </t>
-  </si>
-  <si>
     <t xml:space="preserve">figure 1 for full analysis, figure 2 for pulse press, exposure </t>
   </si>
   <si>
     <t xml:space="preserve">acclimation at flux and tested at different constant treatments </t>
+  </si>
+  <si>
+    <t>heatshock, return for pulse press experiments work;</t>
+  </si>
+  <si>
+    <t>Kern_2015</t>
+  </si>
+  <si>
+    <t>Kern_2015_phys</t>
+  </si>
+  <si>
+    <t>might need to return to get actual irradiances for UV treatments (they manipulated both temperature and irradiance in these experiments); different mean temps..?</t>
+  </si>
+  <si>
+    <t>different means between constant and flux</t>
+  </si>
+  <si>
+    <t>figure 2,3 for full analysis, figure 4 and 5 acclimation; different means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different means   </t>
   </si>
 </sst>
 </file>
@@ -3704,8 +3710,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3754,16 +3760,16 @@
         <v>183</v>
       </c>
       <c r="O1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4668,16 +4674,16 @@
         <v>23</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="Q23" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4721,16 +4727,16 @@
         <v>23</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4774,16 +4780,16 @@
         <v>23</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4827,19 +4833,19 @@
         <v>23</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
@@ -4880,16 +4886,16 @@
         <v>23</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4933,13 +4939,13 @@
         <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O28" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="P28" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="R28" t="s">
         <v>23</v>
@@ -4986,16 +4992,16 @@
         <v>23</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5039,13 +5045,13 @@
         <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P30" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="R30" t="s">
         <v>23</v>
@@ -5092,16 +5098,16 @@
         <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="P31" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q31" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5148,45 +5154,45 @@
         <v>23</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>940</v>
+      </c>
+      <c r="B33" t="s">
         <v>248</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>249</v>
-      </c>
-      <c r="C33" t="s">
-        <v>250</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33">
         <v>2015</v>
       </c>
       <c r="G33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
         <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -5201,16 +5207,16 @@
         <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O33" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="P33" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q33" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5218,31 +5224,31 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>939</v>
+      </c>
+      <c r="B34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" t="s">
         <v>254</v>
-      </c>
-      <c r="B34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" t="s">
-        <v>256</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F34">
         <v>2015</v>
       </c>
       <c r="G34" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" t="s">
         <v>258</v>
-      </c>
-      <c r="H34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" t="s">
-        <v>260</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
@@ -5257,16 +5263,16 @@
         <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O34" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="P34" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q34" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="R34" t="s">
         <v>23</v>
@@ -5274,31 +5280,31 @@
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>21</v>
@@ -5313,42 +5319,42 @@
         <v>23</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" t="s">
         <v>269</v>
-      </c>
-      <c r="B36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" t="s">
-        <v>271</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F36">
         <v>2014</v>
       </c>
       <c r="G36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H36" t="s">
         <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -5363,16 +5369,16 @@
         <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O36" t="s">
+        <v>862</v>
+      </c>
+      <c r="P36" t="s">
         <v>864</v>
       </c>
-      <c r="P36" t="s">
-        <v>866</v>
-      </c>
       <c r="Q36" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="R36" t="s">
         <v>23</v>
@@ -5380,31 +5386,31 @@
     </row>
     <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F37" s="1">
         <v>2000</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>21</v>
@@ -5419,45 +5425,45 @@
         <v>23</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38" t="s">
         <v>281</v>
-      </c>
-      <c r="B38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" t="s">
-        <v>283</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F38">
         <v>2018</v>
       </c>
       <c r="G38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H38" t="s">
         <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -5472,16 +5478,16 @@
         <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O38" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="P38" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q38" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="R38" t="s">
         <v>23</v>
@@ -5489,31 +5495,31 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" t="s">
         <v>287</v>
-      </c>
-      <c r="B39" t="s">
-        <v>288</v>
-      </c>
-      <c r="C39" t="s">
-        <v>289</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F39">
         <v>2019</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H39" t="s">
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J39" t="s">
         <v>21</v>
@@ -5528,16 +5534,16 @@
         <v>23</v>
       </c>
       <c r="N39" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O39" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P39" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>23</v>
@@ -5545,31 +5551,31 @@
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F40" s="1">
         <v>2015</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>21</v>
@@ -5584,42 +5590,42 @@
         <v>23</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" t="s">
         <v>299</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>300</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>301</v>
-      </c>
-      <c r="D41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E41" t="s">
-        <v>303</v>
       </c>
       <c r="F41">
         <v>2015</v>
       </c>
       <c r="G41" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41" t="s">
         <v>304</v>
-      </c>
-      <c r="H41" t="s">
-        <v>305</v>
-      </c>
-      <c r="I41" t="s">
-        <v>306</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
@@ -5634,16 +5640,16 @@
         <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O41" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="P41" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q41" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>23</v>
@@ -5651,37 +5657,37 @@
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F42" s="1">
         <v>2006</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>21</v>
@@ -5690,54 +5696,54 @@
         <v>23</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F43" s="1">
         <v>2015</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>21</v>
@@ -5746,48 +5752,48 @@
         <v>23</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" t="s">
         <v>320</v>
-      </c>
-      <c r="B44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C44" t="s">
-        <v>322</v>
       </c>
       <c r="D44" t="s">
         <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F44">
         <v>2016</v>
       </c>
       <c r="G44" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H44" t="s">
         <v>114</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s">
         <v>21</v>
@@ -5796,48 +5802,51 @@
         <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O44" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="P44" t="s">
-        <v>866</v>
+        <v>864</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F45" s="1">
         <v>2019</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>21</v>
@@ -5846,51 +5855,51 @@
         <v>23</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O45" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="Q45" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F46" s="1">
         <v>2012</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>21</v>
@@ -5899,51 +5908,51 @@
         <v>23</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F47" s="1">
         <v>2020</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>21</v>
@@ -5952,51 +5961,51 @@
         <v>23</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F48" s="1">
         <v>2012</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>21</v>
@@ -6005,48 +6014,48 @@
         <v>23</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>348</v>
+      </c>
+      <c r="B49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" t="s">
         <v>350</v>
-      </c>
-      <c r="B49" t="s">
-        <v>351</v>
-      </c>
-      <c r="C49" t="s">
-        <v>352</v>
       </c>
       <c r="D49" t="s">
         <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F49">
         <v>2012</v>
       </c>
       <c r="G49" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H49" t="s">
         <v>198</v>
       </c>
       <c r="I49" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L49" t="s">
         <v>21</v>
@@ -6055,48 +6064,51 @@
         <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O49" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="P49" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+      <c r="R49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" t="s">
         <v>356</v>
-      </c>
-      <c r="B50" t="s">
-        <v>357</v>
-      </c>
-      <c r="C50" t="s">
-        <v>358</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F50">
         <v>2014</v>
       </c>
       <c r="G50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H50" t="s">
         <v>114</v>
       </c>
       <c r="I50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L50" t="s">
         <v>21</v>
@@ -6105,48 +6117,51 @@
         <v>23</v>
       </c>
       <c r="N50" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O50" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="P50" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+      <c r="R50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" t="s">
         <v>362</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>363</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>364</v>
-      </c>
-      <c r="D51" t="s">
-        <v>365</v>
-      </c>
-      <c r="E51" t="s">
-        <v>366</v>
       </c>
       <c r="F51">
         <v>2007</v>
       </c>
       <c r="G51" t="s">
+        <v>365</v>
+      </c>
+      <c r="H51" t="s">
+        <v>366</v>
+      </c>
+      <c r="I51" t="s">
         <v>367</v>
       </c>
-      <c r="H51" t="s">
-        <v>368</v>
-      </c>
-      <c r="I51" t="s">
-        <v>369</v>
-      </c>
       <c r="J51" t="s">
         <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L51" t="s">
         <v>21</v>
@@ -6155,27 +6170,30 @@
         <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O51" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="P51" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q51" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+      <c r="R51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>195</v>
@@ -6187,514 +6205,525 @@
         <v>2002</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>198</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>373</v>
+      </c>
+      <c r="B53" t="s">
         <v>374</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
         <v>375</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>376</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>377</v>
-      </c>
-      <c r="D53" t="s">
-        <v>378</v>
-      </c>
-      <c r="E53" t="s">
-        <v>379</v>
       </c>
       <c r="F53">
         <v>2014</v>
       </c>
       <c r="G53" t="s">
+        <v>378</v>
+      </c>
+      <c r="H53" t="s">
+        <v>379</v>
+      </c>
+      <c r="I53" t="s">
         <v>380</v>
       </c>
-      <c r="H53" t="s">
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>311</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>854</v>
+      </c>
+      <c r="N53" t="s">
+        <v>854</v>
+      </c>
+      <c r="O53" t="s">
+        <v>880</v>
+      </c>
+      <c r="P53" t="s">
+        <v>864</v>
+      </c>
+      <c r="R53" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I53" t="s">
+      <c r="B54" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
-        <v>313</v>
-      </c>
-      <c r="L53" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" t="s">
-        <v>856</v>
-      </c>
-      <c r="N53" t="s">
-        <v>856</v>
-      </c>
-      <c r="O53" t="s">
-        <v>882</v>
-      </c>
-      <c r="P53" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="F54" s="1">
         <v>2010</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="J54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F55" s="1">
         <v>2015</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>395</v>
+      </c>
+      <c r="B56" t="s">
         <v>396</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
         <v>397</v>
-      </c>
-      <c r="B56" t="s">
-        <v>398</v>
-      </c>
-      <c r="C56" t="s">
-        <v>399</v>
       </c>
       <c r="D56" t="s">
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F56">
         <v>2016</v>
       </c>
       <c r="G56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H56" t="s">
         <v>54</v>
       </c>
       <c r="I56" t="s">
+        <v>400</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>311</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>854</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="P56" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J56" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" t="s">
-        <v>313</v>
-      </c>
-      <c r="L56" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" t="s">
-        <v>856</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="P56" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F57" s="1">
         <v>2020</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C58" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F58" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="H58" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F58">
-        <v>2017</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="J58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H58" t="s">
-        <v>84</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="B59" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="J58" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" t="s">
-        <v>409</v>
-      </c>
-      <c r="L58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" t="s">
-        <v>856</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="O58" t="s">
-        <v>871</v>
-      </c>
-      <c r="P58" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="F59" s="1">
         <v>2020</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="J59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="F60" s="1">
         <v>2008</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="J60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="F61" s="1">
         <v>2015</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="J61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="F62" s="1">
         <v>2018</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="J62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>21</v>
@@ -6703,45 +6732,45 @@
         <v>23</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D63" t="s">
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F63">
         <v>2014</v>
       </c>
       <c r="G63" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H63" t="s">
         <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L63" t="s">
         <v>21</v>
@@ -6750,51 +6779,54 @@
         <v>23</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>451</v>
+      </c>
+      <c r="B64" t="s">
+        <v>452</v>
+      </c>
+      <c r="C64" t="s">
         <v>453</v>
-      </c>
-      <c r="B64" t="s">
-        <v>454</v>
-      </c>
-      <c r="C64" t="s">
-        <v>455</v>
       </c>
       <c r="D64" t="s">
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F64">
         <v>2004</v>
       </c>
       <c r="G64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H64" t="s">
         <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L64" t="s">
         <v>21</v>
@@ -6803,51 +6835,54 @@
         <v>23</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>936</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>457</v>
+      </c>
+      <c r="B65" t="s">
+        <v>458</v>
+      </c>
+      <c r="C65" t="s">
         <v>459</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
         <v>460</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>461</v>
-      </c>
-      <c r="D65" t="s">
-        <v>462</v>
-      </c>
-      <c r="E65" t="s">
-        <v>463</v>
       </c>
       <c r="F65">
         <v>2017</v>
       </c>
       <c r="G65" t="s">
+        <v>462</v>
+      </c>
+      <c r="H65" t="s">
+        <v>463</v>
+      </c>
+      <c r="I65" t="s">
         <v>464</v>
       </c>
-      <c r="H65" t="s">
-        <v>465</v>
-      </c>
-      <c r="I65" t="s">
-        <v>466</v>
-      </c>
       <c r="J65" t="s">
         <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L65" t="s">
         <v>21</v>
@@ -6856,48 +6891,54 @@
         <v>23</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>864</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="R65" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F66" s="1">
         <v>2018</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>21</v>
@@ -6906,51 +6947,51 @@
         <v>23</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" t="s">
+        <v>472</v>
+      </c>
+      <c r="C67" t="s">
         <v>473</v>
-      </c>
-      <c r="B67" t="s">
-        <v>474</v>
-      </c>
-      <c r="C67" t="s">
-        <v>475</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F67">
         <v>2018</v>
       </c>
       <c r="G67" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H67" t="s">
         <v>84</v>
       </c>
       <c r="I67" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L67" t="s">
         <v>21</v>
@@ -6959,51 +7000,54 @@
         <v>23</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="F68" s="1">
         <v>2017</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="J68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>21</v>
@@ -7012,48 +7056,48 @@
         <v>23</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F69" s="1">
         <v>2014</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>21</v>
@@ -7062,48 +7106,48 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="F70" s="1">
         <v>2015</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>21</v>
@@ -7112,27 +7156,27 @@
         <v>23</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>188</v>
@@ -7141,66 +7185,66 @@
         <v>2005</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="J71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="F72" s="1">
         <v>2011</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="J72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>21</v>
@@ -7209,48 +7253,48 @@
         <v>23</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F73" s="1">
         <v>2011</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>21</v>
@@ -7259,98 +7303,98 @@
         <v>23</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="F74" s="1">
         <v>2015</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="J74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="L74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="F75" s="2">
         <v>2018</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="J75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>21</v>
@@ -7359,39 +7403,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>537</v>
+      </c>
+      <c r="B76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C76" t="s">
         <v>539</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" t="s">
         <v>540</v>
-      </c>
-      <c r="C76" t="s">
-        <v>541</v>
-      </c>
-      <c r="D76" t="s">
-        <v>264</v>
-      </c>
-      <c r="E76" t="s">
-        <v>542</v>
       </c>
       <c r="F76">
         <v>2015</v>
       </c>
       <c r="G76" t="s">
+        <v>541</v>
+      </c>
+      <c r="H76" t="s">
+        <v>265</v>
+      </c>
+      <c r="I76" t="s">
+        <v>542</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
         <v>543</v>
-      </c>
-      <c r="H76" t="s">
-        <v>267</v>
-      </c>
-      <c r="I76" t="s">
-        <v>544</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" t="s">
-        <v>545</v>
       </c>
       <c r="L76" t="s">
         <v>21</v>
@@ -7400,39 +7444,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>544</v>
+      </c>
+      <c r="B77" t="s">
+        <v>545</v>
+      </c>
+      <c r="C77" t="s">
         <v>546</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
         <v>547</v>
       </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>548</v>
-      </c>
-      <c r="D77" t="s">
-        <v>549</v>
-      </c>
-      <c r="E77" t="s">
-        <v>550</v>
       </c>
       <c r="F77">
         <v>2017</v>
       </c>
       <c r="G77" t="s">
+        <v>549</v>
+      </c>
+      <c r="H77" t="s">
+        <v>550</v>
+      </c>
+      <c r="I77" t="s">
         <v>551</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
         <v>552</v>
-      </c>
-      <c r="I77" t="s">
-        <v>553</v>
-      </c>
-      <c r="J77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" t="s">
-        <v>554</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
@@ -7441,39 +7485,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>553</v>
+      </c>
+      <c r="B78" t="s">
+        <v>554</v>
+      </c>
+      <c r="C78" t="s">
         <v>555</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>556</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>557</v>
-      </c>
-      <c r="D78" t="s">
-        <v>558</v>
-      </c>
-      <c r="E78" t="s">
-        <v>559</v>
       </c>
       <c r="F78">
         <v>2020</v>
       </c>
       <c r="G78" t="s">
+        <v>558</v>
+      </c>
+      <c r="H78" t="s">
+        <v>559</v>
+      </c>
+      <c r="I78" t="s">
         <v>560</v>
       </c>
-      <c r="H78" t="s">
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
         <v>561</v>
-      </c>
-      <c r="I78" t="s">
-        <v>562</v>
-      </c>
-      <c r="J78" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" t="s">
-        <v>563</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -7482,74 +7526,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>562</v>
+      </c>
+      <c r="B79" t="s">
+        <v>563</v>
+      </c>
+      <c r="C79" t="s">
         <v>564</v>
-      </c>
-      <c r="B79" t="s">
-        <v>565</v>
-      </c>
-      <c r="C79" t="s">
-        <v>566</v>
       </c>
       <c r="D79" t="s">
         <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F79">
         <v>2016</v>
       </c>
       <c r="G79" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H79" t="s">
         <v>174</v>
       </c>
       <c r="I79" t="s">
+        <v>567</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>561</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="J79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" t="s">
-        <v>563</v>
-      </c>
-      <c r="L79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M79" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="F80" s="1">
         <v>2018</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>21</v>
@@ -7564,27 +7608,27 @@
         <v>23</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>188</v>
@@ -7593,795 +7637,795 @@
         <v>2007</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="J81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="L81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>584</v>
+      </c>
+      <c r="B82" t="s">
+        <v>585</v>
+      </c>
+      <c r="C82" t="s">
         <v>586</v>
-      </c>
-      <c r="B82" t="s">
-        <v>587</v>
-      </c>
-      <c r="C82" t="s">
-        <v>588</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F82">
         <v>2020</v>
       </c>
       <c r="G82" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H82" t="s">
         <v>38</v>
       </c>
       <c r="I82" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J82" t="s">
         <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L82" t="s">
         <v>21</v>
       </c>
       <c r="M82" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>591</v>
+      </c>
+      <c r="B83" t="s">
+        <v>592</v>
+      </c>
+      <c r="C83" t="s">
         <v>593</v>
-      </c>
-      <c r="B83" t="s">
-        <v>594</v>
-      </c>
-      <c r="C83" t="s">
-        <v>595</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F83">
         <v>2009</v>
       </c>
       <c r="G83" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H83" t="s">
         <v>54</v>
       </c>
       <c r="I83" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L83" t="s">
         <v>21</v>
       </c>
       <c r="M83" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>597</v>
+      </c>
+      <c r="B84" t="s">
+        <v>598</v>
+      </c>
+      <c r="C84" t="s">
         <v>599</v>
-      </c>
-      <c r="B84" t="s">
-        <v>600</v>
-      </c>
-      <c r="C84" t="s">
-        <v>601</v>
       </c>
       <c r="D84" t="s">
         <v>111</v>
       </c>
       <c r="E84" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F84">
         <v>2003</v>
       </c>
       <c r="G84" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H84" t="s">
         <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L84" t="s">
         <v>21</v>
       </c>
       <c r="M84" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>603</v>
+      </c>
+      <c r="B85" t="s">
+        <v>604</v>
+      </c>
+      <c r="C85" t="s">
         <v>605</v>
-      </c>
-      <c r="B85" t="s">
-        <v>606</v>
-      </c>
-      <c r="C85" t="s">
-        <v>607</v>
       </c>
       <c r="D85" t="s">
         <v>111</v>
       </c>
       <c r="E85" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F85">
         <v>2020</v>
       </c>
       <c r="G85" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H85" t="s">
         <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L85" t="s">
         <v>21</v>
       </c>
       <c r="M85" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>609</v>
+      </c>
+      <c r="B86" t="s">
+        <v>610</v>
+      </c>
+      <c r="C86" t="s">
         <v>611</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>612</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>613</v>
-      </c>
-      <c r="D86" t="s">
-        <v>614</v>
-      </c>
-      <c r="E86" t="s">
-        <v>615</v>
       </c>
       <c r="F86">
         <v>2016</v>
       </c>
       <c r="G86" t="s">
+        <v>614</v>
+      </c>
+      <c r="H86" t="s">
+        <v>615</v>
+      </c>
+      <c r="I86" t="s">
         <v>616</v>
       </c>
-      <c r="H86" t="s">
-        <v>617</v>
-      </c>
-      <c r="I86" t="s">
-        <v>618</v>
-      </c>
       <c r="J86" t="s">
         <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L86" t="s">
         <v>21</v>
       </c>
       <c r="M86" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>617</v>
+      </c>
+      <c r="B87" t="s">
+        <v>618</v>
+      </c>
+      <c r="C87" t="s">
         <v>619</v>
-      </c>
-      <c r="B87" t="s">
-        <v>620</v>
-      </c>
-      <c r="C87" t="s">
-        <v>621</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F87">
         <v>2009</v>
       </c>
       <c r="G87" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H87" t="s">
         <v>38</v>
       </c>
       <c r="I87" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L87" t="s">
         <v>21</v>
       </c>
       <c r="M87" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>623</v>
+      </c>
+      <c r="B88" t="s">
+        <v>624</v>
+      </c>
+      <c r="C88" t="s">
         <v>625</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>626</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>627</v>
-      </c>
-      <c r="D88" t="s">
-        <v>628</v>
-      </c>
-      <c r="E88" t="s">
-        <v>629</v>
       </c>
       <c r="F88">
         <v>2014</v>
       </c>
       <c r="G88" t="s">
+        <v>628</v>
+      </c>
+      <c r="H88" t="s">
+        <v>629</v>
+      </c>
+      <c r="I88" t="s">
         <v>630</v>
       </c>
-      <c r="H88" t="s">
-        <v>631</v>
-      </c>
-      <c r="I88" t="s">
-        <v>632</v>
-      </c>
       <c r="J88" t="s">
         <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L88" t="s">
         <v>21</v>
       </c>
       <c r="M88" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>631</v>
+      </c>
+      <c r="B89" t="s">
+        <v>632</v>
+      </c>
+      <c r="C89" t="s">
         <v>633</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>634</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>635</v>
-      </c>
-      <c r="D89" t="s">
-        <v>636</v>
-      </c>
-      <c r="E89" t="s">
-        <v>637</v>
       </c>
       <c r="F89">
         <v>1995</v>
       </c>
       <c r="G89" t="s">
+        <v>636</v>
+      </c>
+      <c r="H89" t="s">
+        <v>637</v>
+      </c>
+      <c r="I89" t="s">
         <v>638</v>
       </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
         <v>639</v>
       </c>
-      <c r="I89" t="s">
-        <v>640</v>
-      </c>
-      <c r="J89" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" t="s">
-        <v>641</v>
-      </c>
       <c r="L89" t="s">
         <v>21</v>
       </c>
       <c r="M89" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>640</v>
+      </c>
+      <c r="B90" t="s">
+        <v>641</v>
+      </c>
+      <c r="C90" t="s">
         <v>642</v>
-      </c>
-      <c r="B90" t="s">
-        <v>643</v>
-      </c>
-      <c r="C90" t="s">
-        <v>644</v>
       </c>
       <c r="D90" t="s">
         <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F90">
         <v>2017</v>
       </c>
       <c r="G90" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H90" t="s">
         <v>114</v>
       </c>
       <c r="I90" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L90" t="s">
         <v>21</v>
       </c>
       <c r="M90" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>647</v>
+      </c>
+      <c r="B91" t="s">
+        <v>648</v>
+      </c>
+      <c r="C91" t="s">
         <v>649</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>650</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>651</v>
-      </c>
-      <c r="D91" t="s">
-        <v>652</v>
-      </c>
-      <c r="E91" t="s">
-        <v>653</v>
       </c>
       <c r="F91">
         <v>1995</v>
       </c>
       <c r="G91" t="s">
+        <v>652</v>
+      </c>
+      <c r="H91" t="s">
+        <v>653</v>
+      </c>
+      <c r="I91" t="s">
         <v>654</v>
       </c>
-      <c r="H91" t="s">
-        <v>655</v>
-      </c>
-      <c r="I91" t="s">
-        <v>656</v>
-      </c>
       <c r="J91" t="s">
         <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
       </c>
       <c r="M91" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>655</v>
+      </c>
+      <c r="B92" t="s">
+        <v>656</v>
+      </c>
+      <c r="C92" t="s">
         <v>657</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>658</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>659</v>
-      </c>
-      <c r="D92" t="s">
-        <v>660</v>
-      </c>
-      <c r="E92" t="s">
-        <v>661</v>
       </c>
       <c r="F92">
         <v>2016</v>
       </c>
       <c r="G92" t="s">
+        <v>660</v>
+      </c>
+      <c r="H92" t="s">
+        <v>661</v>
+      </c>
+      <c r="I92" t="s">
         <v>662</v>
       </c>
-      <c r="H92" t="s">
-        <v>663</v>
-      </c>
-      <c r="I92" t="s">
-        <v>664</v>
-      </c>
       <c r="J92" t="s">
         <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L92" t="s">
         <v>21</v>
       </c>
       <c r="M92" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>663</v>
+      </c>
+      <c r="B93" t="s">
+        <v>664</v>
+      </c>
+      <c r="C93" t="s">
         <v>665</v>
-      </c>
-      <c r="B93" t="s">
-        <v>666</v>
-      </c>
-      <c r="C93" t="s">
-        <v>667</v>
       </c>
       <c r="D93" t="s">
         <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F93">
         <v>2017</v>
       </c>
       <c r="G93" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H93" t="s">
         <v>114</v>
       </c>
       <c r="I93" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L93" t="s">
         <v>21</v>
       </c>
       <c r="M93" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>669</v>
+      </c>
+      <c r="B94" t="s">
+        <v>670</v>
+      </c>
+      <c r="C94" t="s">
         <v>671</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>672</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>673</v>
-      </c>
-      <c r="D94" t="s">
-        <v>674</v>
-      </c>
-      <c r="E94" t="s">
-        <v>675</v>
       </c>
       <c r="F94">
         <v>2019</v>
       </c>
       <c r="G94" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H94" t="s">
         <v>188</v>
       </c>
       <c r="I94" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
       </c>
       <c r="M94" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>676</v>
+      </c>
+      <c r="B95" t="s">
+        <v>677</v>
+      </c>
+      <c r="C95" t="s">
         <v>678</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>679</v>
       </c>
-      <c r="C95" t="s">
+      <c r="E95" t="s">
         <v>680</v>
-      </c>
-      <c r="D95" t="s">
-        <v>681</v>
-      </c>
-      <c r="E95" t="s">
-        <v>682</v>
       </c>
       <c r="F95">
         <v>2017</v>
       </c>
       <c r="G95" t="s">
+        <v>681</v>
+      </c>
+      <c r="H95" t="s">
+        <v>682</v>
+      </c>
+      <c r="I95" t="s">
         <v>683</v>
       </c>
-      <c r="H95" t="s">
-        <v>684</v>
-      </c>
-      <c r="I95" t="s">
-        <v>685</v>
-      </c>
       <c r="J95" t="s">
         <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L95" t="s">
         <v>21</v>
       </c>
       <c r="M95" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>684</v>
+      </c>
+      <c r="B96" t="s">
+        <v>685</v>
+      </c>
+      <c r="C96" t="s">
         <v>686</v>
-      </c>
-      <c r="B96" t="s">
-        <v>687</v>
-      </c>
-      <c r="C96" t="s">
-        <v>688</v>
       </c>
       <c r="D96" t="s">
         <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F96">
         <v>2016</v>
       </c>
       <c r="G96" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H96" t="s">
         <v>38</v>
       </c>
       <c r="I96" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L96" t="s">
         <v>21</v>
       </c>
       <c r="M96" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="F97" s="1">
         <v>2017</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="L97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>697</v>
+      </c>
+      <c r="B98" t="s">
+        <v>698</v>
+      </c>
+      <c r="C98" t="s">
         <v>699</v>
-      </c>
-      <c r="B98" t="s">
-        <v>700</v>
-      </c>
-      <c r="C98" t="s">
-        <v>701</v>
       </c>
       <c r="D98" t="s">
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F98">
         <v>2018</v>
       </c>
       <c r="G98" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H98" t="s">
         <v>54</v>
       </c>
       <c r="I98" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J98" t="s">
         <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="L98" t="s">
         <v>21</v>
       </c>
       <c r="M98" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F99" s="1">
         <v>2017</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>188</v>
@@ -8390,245 +8434,245 @@
         <v>2005</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="L100" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M100" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="N100" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="F101" s="1">
         <v>2010</v>
       </c>
       <c r="G101" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="J101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="L101" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F102" s="1">
         <v>2018</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="F103" s="1">
         <v>2019</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="J103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P103" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="F104" s="1">
         <v>2001</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="J104" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P104" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>188</v>
@@ -8637,369 +8681,369 @@
         <v>2000</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P105" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="F106" s="1">
         <v>2016</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="J106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F107" s="1">
         <v>2019</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="F108" s="1">
         <v>2014</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>776</v>
-      </c>
       <c r="J108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P108" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="F109" s="1">
         <v>1999</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="J109" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F110" s="1">
         <v>2010</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="F111" s="1">
         <v>1995</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="J111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="F112" s="1">
         <v>2009</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>806</v>
-      </c>
       <c r="J112" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>21</v>
@@ -9008,27 +9052,27 @@
         <v>23</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>188</v>
@@ -9037,19 +9081,19 @@
         <v>2009</v>
       </c>
       <c r="G113" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>813</v>
-      </c>
       <c r="J113" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>21</v>
@@ -9058,310 +9102,310 @@
         <v>23</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="F114" s="1">
         <v>2018</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>821</v>
-      </c>
       <c r="J114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F115" s="1">
         <v>2005</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F116" s="1">
         <v>2019</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F117" s="1">
         <v>2016</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F118" s="1">
         <v>2014</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>846</v>
+      </c>
+      <c r="B119" t="s">
+        <v>847</v>
+      </c>
+      <c r="C119" t="s">
         <v>848</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>849</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>850</v>
-      </c>
-      <c r="D119" t="s">
-        <v>851</v>
-      </c>
-      <c r="E119" t="s">
-        <v>852</v>
       </c>
       <c r="F119">
         <v>2020</v>
       </c>
       <c r="G119" t="s">
+        <v>851</v>
+      </c>
+      <c r="H119" t="s">
+        <v>852</v>
+      </c>
+      <c r="I119" t="s">
         <v>853</v>
       </c>
-      <c r="H119" t="s">
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>839</v>
+      </c>
+      <c r="L119" t="s">
+        <v>21</v>
+      </c>
+      <c r="M119" t="s">
         <v>854</v>
       </c>
-      <c r="I119" t="s">
-        <v>855</v>
-      </c>
-      <c r="J119" t="s">
-        <v>21</v>
-      </c>
-      <c r="K119" t="s">
-        <v>841</v>
-      </c>
-      <c r="L119" t="s">
-        <v>21</v>
-      </c>
-      <c r="M119" t="s">
-        <v>856</v>
-      </c>
       <c r="N119" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="P119" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /fullvariability /wos176_final.xlsx
+++ b/data extraction /lit search metadata /fullvariability /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /fullvariability /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE348A3-98C0-7647-B86D-2A179F95CB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A554326B-1B0D-6942-8734-706663F0431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5580" windowWidth="23980" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="946">
   <si>
     <t>label</t>
   </si>
@@ -2856,6 +2856,9 @@
   </si>
   <si>
     <t xml:space="preserve">different means   </t>
+  </si>
+  <si>
+    <t>TSD, no fluctuating treatment</t>
   </si>
 </sst>
 </file>
@@ -3710,8 +3713,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R44" sqref="R44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4214,7 +4217,7 @@
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>945</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
